--- a/data/interim/wsb_annotation_wip.xlsx
+++ b/data/interim/wsb_annotation_wip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janbu\Desktop\Bachelor_Thesis\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD18198-E937-4672-906F-0FB0515B46C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E3DB0E-AD04-40EE-B2DA-A2C534F3D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{370124DA-F4A3-4AE4-8DA5-B2D165858229}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{370124DA-F4A3-4AE4-8DA5-B2D165858229}"/>
   </bookViews>
   <sheets>
     <sheet name="automatic_annotation" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4378" uniqueCount="2684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4379" uniqueCount="2684">
   <si>
     <t>Column1</t>
   </si>
@@ -9721,8 +9721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE209E3-5C5C-40B3-A43B-AFCF2F6719D2}">
   <dimension ref="A1:H2184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10653,6 +10653,9 @@
       <c r="D54" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -10859,6 +10862,9 @@
       <c r="D67" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -10873,6 +10879,9 @@
       <c r="D68" s="1" t="s">
         <v>115</v>
       </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -10963,6 +10972,9 @@
       <c r="D74" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -11093,6 +11105,9 @@
       <c r="D82" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -11121,6 +11136,9 @@
       <c r="D84" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -11155,6 +11173,9 @@
       <c r="D86" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -11169,6 +11190,9 @@
       <c r="D87" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -11237,6 +11261,9 @@
       <c r="D91" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -11251,6 +11278,9 @@
       <c r="D92" s="1" t="s">
         <v>152</v>
       </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -11347,6 +11377,9 @@
       <c r="D98" s="1" t="s">
         <v>161</v>
       </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -11457,6 +11490,9 @@
       <c r="D105" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -11471,6 +11507,9 @@
       <c r="D106" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -11485,6 +11524,9 @@
       <c r="D107" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -11519,6 +11561,9 @@
       <c r="D109" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -11607,6 +11652,9 @@
       <c r="D114" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -11734,6 +11782,9 @@
       <c r="D122" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -11782,6 +11833,9 @@
       <c r="D125" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -11796,6 +11850,9 @@
       <c r="D126" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -11810,6 +11867,9 @@
       <c r="D127" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -11838,6 +11898,9 @@
       <c r="D129" s="1" t="s">
         <v>203</v>
       </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -11886,6 +11949,9 @@
       <c r="D132" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -12050,6 +12116,9 @@
       <c r="D142" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -12084,6 +12153,9 @@
       <c r="D144" s="1" t="s">
         <v>225</v>
       </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -12118,6 +12190,9 @@
       <c r="D146" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -12132,6 +12207,9 @@
       <c r="D147" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -12186,6 +12264,9 @@
       <c r="D150" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -12220,6 +12301,9 @@
       <c r="D152" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -12248,6 +12332,9 @@
       <c r="D154" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -12279,6 +12366,9 @@
       <c r="D156" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
     </row>
     <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -12327,6 +12417,9 @@
       <c r="D159" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -12486,6 +12579,9 @@
       <c r="D168" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -12534,6 +12630,9 @@
       <c r="D171" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
@@ -12548,6 +12647,9 @@
       <c r="D172" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
@@ -12610,6 +12712,9 @@
       <c r="D176" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
@@ -12638,6 +12743,9 @@
       <c r="D178" s="1" t="s">
         <v>275</v>
       </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
@@ -12652,6 +12760,9 @@
       <c r="D179" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
@@ -12739,6 +12850,9 @@
       <c r="D185" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -12812,6 +12926,9 @@
       <c r="D190" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
@@ -12860,6 +12977,9 @@
       <c r="D193" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
@@ -12908,6 +13028,9 @@
       <c r="D196" s="1" t="s">
         <v>302</v>
       </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
     </row>
     <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
@@ -12942,6 +13065,9 @@
       <c r="D198" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
     </row>
     <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -12976,6 +13102,9 @@
       <c r="D200" s="1" t="s">
         <v>307</v>
       </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -12990,6 +13119,9 @@
       <c r="D201" s="1" t="s">
         <v>309</v>
       </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
     </row>
     <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -13044,6 +13176,9 @@
       <c r="D204" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -13188,6 +13323,9 @@
       <c r="D213" s="1" t="s">
         <v>326</v>
       </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -13202,6 +13340,9 @@
       <c r="D214" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E214">
+        <v>-1</v>
+      </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
@@ -13216,6 +13357,9 @@
       <c r="D215" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="E215">
+        <v>-1</v>
+      </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -13230,6 +13374,9 @@
       <c r="D216" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -13323,6 +13470,9 @@
       <c r="D222" s="1" t="s">
         <v>337</v>
       </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
@@ -13337,6 +13487,9 @@
       <c r="D223" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -13351,8 +13504,11 @@
       <c r="D224" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -13366,7 +13522,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -13386,7 +13542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -13400,7 +13556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -13414,7 +13570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -13427,8 +13583,11 @@
       <c r="D229" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -13445,7 +13604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -13458,8 +13617,14 @@
       <c r="D231" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="G231" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -13479,7 +13644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -13499,7 +13664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -13519,7 +13684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -13532,8 +13697,11 @@
       <c r="D235" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -13547,7 +13715,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -13567,7 +13735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -13587,7 +13755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -13607,7 +13775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -13619,6 +13787,9 @@
       </c>
       <c r="D240" s="1" t="s">
         <v>362</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -13648,6 +13819,9 @@
       <c r="D242" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E242">
+        <v>-1</v>
+      </c>
     </row>
     <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
@@ -13682,6 +13856,9 @@
       <c r="D244" s="1" t="s">
         <v>367</v>
       </c>
+      <c r="E244">
+        <v>-1</v>
+      </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
@@ -13696,6 +13873,9 @@
       <c r="D245" s="1" t="s">
         <v>369</v>
       </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
     </row>
     <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
@@ -13730,6 +13910,9 @@
       <c r="D247" s="1" t="s">
         <v>373</v>
       </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
@@ -13744,6 +13927,9 @@
       <c r="D248" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
@@ -13758,6 +13944,9 @@
       <c r="D249" s="1" t="s">
         <v>376</v>
       </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
     </row>
     <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
@@ -13911,6 +14100,9 @@
       <c r="D258" s="1" t="s">
         <v>390</v>
       </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
@@ -13979,6 +14171,9 @@
       <c r="D262" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
@@ -14007,6 +14202,9 @@
       <c r="D264" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="E264">
+        <v>-1</v>
+      </c>
     </row>
     <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
@@ -14041,6 +14239,9 @@
       <c r="D266" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
@@ -14055,6 +14256,9 @@
       <c r="D267" s="1" t="s">
         <v>402</v>
       </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
@@ -14069,6 +14273,9 @@
       <c r="D268" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
@@ -14083,6 +14290,9 @@
       <c r="D269" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
@@ -14097,6 +14307,9 @@
       <c r="D270" s="1" t="s">
         <v>406</v>
       </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
@@ -14111,6 +14324,9 @@
       <c r="D271" s="1" t="s">
         <v>347</v>
       </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
     </row>
     <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
@@ -14179,6 +14395,9 @@
       <c r="D275" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
@@ -14213,6 +14432,9 @@
       <c r="D277" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
@@ -14275,6 +14497,9 @@
       <c r="D281" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
@@ -14309,6 +14534,9 @@
       <c r="D283" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="E283">
+        <v>-1</v>
+      </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
@@ -14484,6 +14712,9 @@
       <c r="D294" s="1" t="s">
         <v>439</v>
       </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
@@ -14498,6 +14729,9 @@
       <c r="D295" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
@@ -14512,6 +14746,9 @@
       <c r="D296" s="1" t="s">
         <v>443</v>
       </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
@@ -14617,6 +14854,9 @@
       <c r="D302" s="1" t="s">
         <v>451</v>
       </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
@@ -14631,6 +14871,9 @@
       <c r="D303" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
@@ -14746,6 +14989,9 @@
       <c r="D311" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="E311">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
@@ -14760,6 +15006,9 @@
       <c r="D312" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
     </row>
     <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
@@ -14879,6 +15128,9 @@
       <c r="D319" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
     </row>
     <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
@@ -14913,6 +15165,9 @@
       <c r="D321" s="1" t="s">
         <v>242</v>
       </c>
+      <c r="E321">
+        <v>0</v>
+      </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
@@ -14927,6 +15182,9 @@
       <c r="D322" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
@@ -14969,6 +15227,9 @@
       <c r="D325" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E325">
+        <v>-1</v>
+      </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
@@ -14983,6 +15244,9 @@
       <c r="D326" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
     </row>
     <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
@@ -15017,6 +15281,9 @@
       <c r="D328" s="1" t="s">
         <v>482</v>
       </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
@@ -15031,6 +15298,9 @@
       <c r="D329" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
     </row>
     <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
@@ -15110,6 +15380,9 @@
       <c r="D334" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
     </row>
     <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
@@ -15285,6 +15558,9 @@
       <c r="D345" s="1" t="s">
         <v>270</v>
       </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
@@ -15341,6 +15617,9 @@
       <c r="D349" s="1" t="s">
         <v>426</v>
       </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
     </row>
     <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
@@ -15375,6 +15654,9 @@
       <c r="D351" s="1" t="s">
         <v>510</v>
       </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
     </row>
     <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
@@ -15406,6 +15688,9 @@
       <c r="D353" s="1" t="s">
         <v>513</v>
       </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
@@ -15420,6 +15705,9 @@
       <c r="D354" s="1" t="s">
         <v>515</v>
       </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
@@ -15434,6 +15722,9 @@
       <c r="D355" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
@@ -15448,6 +15739,9 @@
       <c r="D356" s="1" t="s">
         <v>518</v>
       </c>
+      <c r="E356">
+        <v>-1</v>
+      </c>
     </row>
     <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
@@ -15482,6 +15776,9 @@
       <c r="D358" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
@@ -15496,6 +15793,9 @@
       <c r="D359" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
     </row>
     <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
@@ -15530,6 +15830,9 @@
       <c r="D361" s="1" t="s">
         <v>524</v>
       </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
@@ -15586,6 +15889,9 @@
       <c r="D365" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
@@ -15634,6 +15940,9 @@
       <c r="D368" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
@@ -15648,6 +15957,9 @@
       <c r="D369" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
     </row>
     <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
@@ -15773,6 +16085,9 @@
       <c r="D376" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
     </row>
     <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
@@ -15807,6 +16122,9 @@
       <c r="D378" s="1" t="s">
         <v>390</v>
       </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
@@ -15920,6 +16238,9 @@
       <c r="D385" s="1" t="s">
         <v>555</v>
       </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
@@ -15934,6 +16255,9 @@
       <c r="D386" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E386">
+        <v>0</v>
+      </c>
     </row>
     <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
@@ -16135,6 +16459,9 @@
       <c r="D398" s="1" t="s">
         <v>387</v>
       </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
@@ -16183,6 +16510,9 @@
       <c r="D401" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E401">
+        <v>-1</v>
+      </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
@@ -16211,6 +16541,9 @@
       <c r="D403" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E403">
+        <v>1</v>
+      </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
@@ -16225,6 +16558,9 @@
       <c r="D404" s="1" t="s">
         <v>319</v>
       </c>
+      <c r="E404">
+        <v>0</v>
+      </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
@@ -16341,6 +16677,9 @@
       <c r="D411" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="E411">
+        <v>1</v>
+      </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
@@ -16417,6 +16756,9 @@
       <c r="D416" s="1" t="s">
         <v>487</v>
       </c>
+      <c r="E416">
+        <v>0</v>
+      </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
@@ -16465,6 +16807,9 @@
       <c r="D419" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="E419">
+        <v>-1</v>
+      </c>
     </row>
     <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420">
@@ -16499,6 +16844,9 @@
       <c r="D421" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="E421">
+        <v>0</v>
+      </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
@@ -16527,6 +16875,9 @@
       <c r="D423" s="1" t="s">
         <v>602</v>
       </c>
+      <c r="E423">
+        <v>0</v>
+      </c>
     </row>
     <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
@@ -16561,6 +16912,9 @@
       <c r="D425" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E425">
+        <v>0</v>
+      </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
@@ -16589,6 +16943,9 @@
       <c r="D427" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E427">
+        <v>0</v>
+      </c>
     </row>
     <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
@@ -16697,6 +17054,9 @@
       <c r="D433" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E433">
+        <v>0</v>
+      </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
@@ -16711,6 +17071,9 @@
       <c r="D434" s="1" t="s">
         <v>535</v>
       </c>
+      <c r="E434">
+        <v>1</v>
+      </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
@@ -16753,6 +17116,9 @@
       <c r="D437" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E437">
+        <v>0</v>
+      </c>
     </row>
     <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
@@ -16827,6 +17193,9 @@
       <c r="D441" s="1" t="s">
         <v>625</v>
       </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
@@ -16900,6 +17269,9 @@
       <c r="D446" s="1" t="s">
         <v>631</v>
       </c>
+      <c r="E446">
+        <v>-1</v>
+      </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
@@ -16914,6 +17286,9 @@
       <c r="D447" s="1" t="s">
         <v>633</v>
       </c>
+      <c r="E447">
+        <v>0</v>
+      </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
@@ -16928,6 +17303,9 @@
       <c r="D448" s="1" t="s">
         <v>518</v>
       </c>
+      <c r="E448">
+        <v>0</v>
+      </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
@@ -16942,6 +17320,9 @@
       <c r="D449" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E449">
+        <v>0</v>
+      </c>
     </row>
     <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
@@ -16976,6 +17357,9 @@
       <c r="D451" s="1" t="s">
         <v>639</v>
       </c>
+      <c r="E451">
+        <v>0</v>
+      </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
@@ -16990,6 +17374,9 @@
       <c r="D452" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
     </row>
     <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
@@ -17024,6 +17411,9 @@
       <c r="D454" s="1" t="s">
         <v>643</v>
       </c>
+      <c r="E454">
+        <v>1</v>
+      </c>
     </row>
     <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
@@ -17078,6 +17468,9 @@
       <c r="D457" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E457">
+        <v>0</v>
+      </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
@@ -17120,6 +17513,9 @@
       <c r="D460" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="E460">
+        <v>0</v>
+      </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
@@ -17168,6 +17564,9 @@
       <c r="D463" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="E463">
+        <v>0</v>
+      </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
@@ -17196,6 +17595,9 @@
       <c r="D465" s="1" t="s">
         <v>655</v>
       </c>
+      <c r="E465">
+        <v>0</v>
+      </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
@@ -17210,6 +17612,9 @@
       <c r="D466" s="1" t="s">
         <v>487</v>
       </c>
+      <c r="E466">
+        <v>0</v>
+      </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
@@ -17252,6 +17657,9 @@
       <c r="D469" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="E469">
+        <v>0</v>
+      </c>
     </row>
     <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
@@ -17377,6 +17785,9 @@
       <c r="D476" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
@@ -17391,6 +17802,9 @@
       <c r="D477" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="E477">
+        <v>1</v>
+      </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
@@ -17405,6 +17819,9 @@
       <c r="D478" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
@@ -17419,6 +17836,9 @@
       <c r="D479" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E479">
+        <v>-1</v>
+      </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
@@ -17433,6 +17853,9 @@
       <c r="D480" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="E480">
+        <v>-1</v>
+      </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
@@ -17447,6 +17870,9 @@
       <c r="D481" s="1" t="s">
         <v>674</v>
       </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
@@ -17461,6 +17887,9 @@
       <c r="D482" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
     </row>
     <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
@@ -17583,6 +18012,9 @@
       <c r="D489" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E489">
+        <v>0</v>
+      </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
@@ -17597,6 +18029,9 @@
       <c r="D490" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="E490">
+        <v>-1</v>
+      </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
@@ -17645,6 +18080,9 @@
       <c r="D493" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E493">
+        <v>0</v>
+      </c>
     </row>
     <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
@@ -17679,6 +18117,9 @@
       <c r="D495" s="1" t="s">
         <v>692</v>
       </c>
+      <c r="E495">
+        <v>1</v>
+      </c>
     </row>
     <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
@@ -17713,6 +18154,9 @@
       <c r="D497" s="1" t="s">
         <v>696</v>
       </c>
+      <c r="E497">
+        <v>0</v>
+      </c>
     </row>
     <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
@@ -17781,6 +18225,9 @@
       <c r="D501" s="1" t="s">
         <v>150</v>
       </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
     </row>
     <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
@@ -17835,6 +18282,9 @@
       <c r="D504" s="1" t="s">
         <v>704</v>
       </c>
+      <c r="E504">
+        <v>0</v>
+      </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
@@ -17849,6 +18299,9 @@
       <c r="D505" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="E505">
+        <v>0</v>
+      </c>
     </row>
     <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
@@ -17883,6 +18336,9 @@
       <c r="D507" s="1" t="s">
         <v>708</v>
       </c>
+      <c r="E507">
+        <v>0</v>
+      </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
@@ -17979,6 +18435,9 @@
       <c r="D513" s="1" t="s">
         <v>715</v>
       </c>
+      <c r="E513">
+        <v>0</v>
+      </c>
     </row>
     <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
@@ -18027,6 +18486,9 @@
       <c r="D516" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E516">
+        <v>0</v>
+      </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
@@ -18041,6 +18503,9 @@
       <c r="D517" s="1" t="s">
         <v>720</v>
       </c>
+      <c r="E517">
+        <v>1</v>
+      </c>
     </row>
     <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
@@ -18072,6 +18537,9 @@
       <c r="D519" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
@@ -18086,6 +18554,9 @@
       <c r="D520" s="1" t="s">
         <v>277</v>
       </c>
+      <c r="E520">
+        <v>0</v>
+      </c>
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
@@ -18100,6 +18571,9 @@
       <c r="D521" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="E521">
+        <v>-1</v>
+      </c>
     </row>
     <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522">
@@ -18279,6 +18753,9 @@
       <c r="D531" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E531">
+        <v>1</v>
+      </c>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532">
@@ -18293,6 +18770,9 @@
       <c r="D532" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="E532">
+        <v>1</v>
+      </c>
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533">
@@ -18392,6 +18872,9 @@
       <c r="D538" s="1" t="s">
         <v>747</v>
       </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
     </row>
     <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539">
@@ -18440,6 +18923,9 @@
       <c r="D541" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
     </row>
     <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542">
@@ -18491,6 +18977,9 @@
       <c r="D544" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E544">
+        <v>0</v>
+      </c>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545">
@@ -18615,6 +19104,9 @@
       <c r="D552" s="1" t="s">
         <v>764</v>
       </c>
+      <c r="E552">
+        <v>0</v>
+      </c>
     </row>
     <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553">
@@ -18717,6 +19209,9 @@
       <c r="D558" s="1" t="s">
         <v>772</v>
       </c>
+      <c r="E558">
+        <v>0</v>
+      </c>
     </row>
     <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559">
@@ -18862,6 +19357,9 @@
       <c r="D566" s="1" t="s">
         <v>783</v>
       </c>
+      <c r="E566">
+        <v>0</v>
+      </c>
     </row>
     <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567">
@@ -18989,6 +19487,9 @@
       <c r="D574" s="1" t="s">
         <v>793</v>
       </c>
+      <c r="E574">
+        <v>1</v>
+      </c>
     </row>
     <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575">
@@ -19023,6 +19524,9 @@
       <c r="D576" s="1" t="s">
         <v>796</v>
       </c>
+      <c r="E576">
+        <v>1</v>
+      </c>
     </row>
     <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577">
@@ -19057,6 +19561,9 @@
       <c r="D578" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E578">
+        <v>0</v>
+      </c>
     </row>
     <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579">
@@ -19071,6 +19578,9 @@
       <c r="D579" s="1" t="s">
         <v>800</v>
       </c>
+      <c r="E579">
+        <v>1</v>
+      </c>
     </row>
     <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580">
@@ -19085,6 +19595,9 @@
       <c r="D580" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E580">
+        <v>0</v>
+      </c>
     </row>
     <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581">
@@ -19099,6 +19612,9 @@
       <c r="D581" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="E581">
+        <v>0</v>
+      </c>
     </row>
     <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582">
@@ -19164,6 +19680,9 @@
       <c r="D585" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E585">
+        <v>0</v>
+      </c>
     </row>
     <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586">
@@ -19212,6 +19731,9 @@
       <c r="D588" s="1" t="s">
         <v>811</v>
       </c>
+      <c r="E588">
+        <v>0</v>
+      </c>
     </row>
     <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589">
@@ -19240,6 +19762,9 @@
       <c r="D590" s="1" t="s">
         <v>321</v>
       </c>
+      <c r="E590">
+        <v>1</v>
+      </c>
     </row>
     <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591">
@@ -19274,6 +19799,9 @@
       <c r="D592" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E592">
+        <v>0</v>
+      </c>
     </row>
     <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593">
@@ -19288,6 +19816,9 @@
       <c r="D593" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="E593">
+        <v>0</v>
+      </c>
     </row>
     <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594">
@@ -19378,6 +19909,9 @@
       <c r="D599" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
     </row>
     <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600">
@@ -19392,6 +19926,9 @@
       <c r="D600" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="E600">
+        <v>0</v>
+      </c>
     </row>
     <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601">
@@ -19524,6 +20061,9 @@
       <c r="D609" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="E609">
+        <v>1</v>
+      </c>
     </row>
     <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610">
@@ -19892,6 +20432,9 @@
       <c r="D631" s="1" t="s">
         <v>863</v>
       </c>
+      <c r="E631">
+        <v>0</v>
+      </c>
     </row>
     <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632">
@@ -19906,6 +20449,9 @@
       <c r="D632" s="1" t="s">
         <v>865</v>
       </c>
+      <c r="E632">
+        <v>-1</v>
+      </c>
     </row>
     <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633">
@@ -19968,6 +20514,9 @@
       <c r="D636" s="1" t="s">
         <v>262</v>
       </c>
+      <c r="E636">
+        <v>1</v>
+      </c>
     </row>
     <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637">
@@ -20010,6 +20559,9 @@
       <c r="D639" s="1" t="s">
         <v>874</v>
       </c>
+      <c r="E639">
+        <v>0</v>
+      </c>
     </row>
     <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640">
@@ -20180,6 +20732,9 @@
       <c r="D649" s="1" t="s">
         <v>235</v>
       </c>
+      <c r="E649">
+        <v>0</v>
+      </c>
     </row>
     <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650">
@@ -20208,6 +20763,9 @@
       <c r="D651" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="E651">
+        <v>0</v>
+      </c>
     </row>
     <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652">
@@ -20363,6 +20921,9 @@
       <c r="D661" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="E661">
+        <v>0</v>
+      </c>
     </row>
     <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662">
@@ -20377,6 +20938,9 @@
       <c r="D662" s="1" t="s">
         <v>137</v>
       </c>
+      <c r="E662">
+        <v>-1</v>
+      </c>
     </row>
     <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663">
@@ -20391,6 +20955,9 @@
       <c r="D663" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="E663">
+        <v>0</v>
+      </c>
     </row>
     <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664">
@@ -20419,6 +20986,9 @@
       <c r="D665" s="1" t="s">
         <v>123</v>
       </c>
+      <c r="E665">
+        <v>0</v>
+      </c>
     </row>
     <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666">
@@ -20513,6 +21083,9 @@
       <c r="D670" s="1" t="s">
         <v>260</v>
       </c>
+      <c r="E670">
+        <v>0</v>
+      </c>
     </row>
     <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671">
@@ -20541,6 +21114,9 @@
       <c r="D672" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E672">
+        <v>0</v>
+      </c>
     </row>
     <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673">
@@ -20637,6 +21213,9 @@
       <c r="D678" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="E678">
+        <v>-1</v>
+      </c>
     </row>
     <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679">
@@ -20829,6 +21408,9 @@
       <c r="D690" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E690">
+        <v>0</v>
+      </c>
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691">
@@ -21123,6 +21705,9 @@
       <c r="D708" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E708">
+        <v>0</v>
+      </c>
     </row>
     <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709">
@@ -21315,6 +21900,9 @@
       <c r="D720" s="1" t="s">
         <v>526</v>
       </c>
+      <c r="E720">
+        <v>-1</v>
+      </c>
     </row>
     <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721">
@@ -21366,6 +21954,9 @@
       <c r="D723" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E723">
+        <v>0</v>
+      </c>
     </row>
     <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724">
@@ -21471,6 +22062,9 @@
       <c r="D729" s="1" t="s">
         <v>981</v>
       </c>
+      <c r="E729">
+        <v>0</v>
+      </c>
     </row>
     <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730">
@@ -21584,6 +22178,9 @@
       <c r="D736" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E736">
+        <v>0</v>
+      </c>
     </row>
     <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737">
@@ -21814,6 +22411,9 @@
       </c>
       <c r="D751" s="1" t="s">
         <v>196</v>
+      </c>
+      <c r="E751">
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.25">

--- a/data/interim/wsb_annotation_wip.xlsx
+++ b/data/interim/wsb_annotation_wip.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janbu\Desktop\Bachelor_Thesis\data\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E3DB0E-AD04-40EE-B2DA-A2C534F3D218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33734289-52F3-422B-88E3-F140D437F9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{370124DA-F4A3-4AE4-8DA5-B2D165858229}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{370124DA-F4A3-4AE4-8DA5-B2D165858229}"/>
   </bookViews>
   <sheets>
     <sheet name="automatic_annotation" sheetId="2" r:id="rId1"/>
@@ -9403,11 +9403,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{07600014-342F-4501-A005-E89DC9E74488}" name="automatic_annotation" displayName="automatic_annotation" ref="A1:H2184" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H2184" xr:uid="{07600014-342F-4501-A005-E89DC9E74488}">
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H2184" xr:uid="{07600014-342F-4501-A005-E89DC9E74488}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{746E8588-555F-4174-87D9-327BCC024805}" uniqueName="1" name="Column1" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{6EE87D27-E7B4-4573-BB09-AAF609D67757}" uniqueName="2" name="id" queryTableFieldId="2"/>
@@ -9721,8 +9717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE209E3-5C5C-40B3-A43B-AFCF2F6719D2}">
   <dimension ref="A1:H2184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A1191" workbookViewId="0">
+      <selection activeCell="H1206" sqref="H1206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9776,7 +9772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -9844,7 +9840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -9861,7 +9857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9926,7 +9922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9963,7 +9959,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9983,7 +9979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10209,7 +10205,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -10229,7 +10225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -10249,7 +10245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -10300,7 +10296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -10351,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10405,7 +10401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -10453,7 +10449,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -10589,7 +10585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -10606,7 +10602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -10685,7 +10681,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -10747,7 +10743,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -10829,7 +10825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -10897,7 +10893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -10928,7 +10924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -10976,7 +10972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -10993,7 +10989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -11027,7 +11023,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -11072,7 +11068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -11140,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -11194,7 +11190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -11214,7 +11210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -11310,7 +11306,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -11330,7 +11326,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -11347,7 +11343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -11381,7 +11377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -11457,7 +11453,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -11528,7 +11524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -11565,7 +11561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -11599,7 +11595,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -11619,7 +11615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -11656,7 +11652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -11690,7 +11686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -11707,7 +11703,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -11724,7 +11720,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -11786,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -11803,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -11916,7 +11912,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -11953,7 +11949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -11987,7 +11983,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -12004,7 +12000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -12035,7 +12031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -12055,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -12086,7 +12082,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -12120,7 +12116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -12157,7 +12153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -12211,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -12231,7 +12227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -12268,7 +12264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -12336,7 +12332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -12370,7 +12366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -12435,7 +12431,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -12452,7 +12448,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -12472,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -12506,7 +12502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -12526,7 +12522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -12546,7 +12542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -12597,7 +12593,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -12679,7 +12675,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -12778,7 +12774,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -12868,7 +12864,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -12930,7 +12926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -12995,7 +12991,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -13032,7 +13028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -13069,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -13123,7 +13119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -13143,7 +13139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -13180,7 +13176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -13200,7 +13196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -13262,7 +13258,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -13392,7 +13388,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -13423,7 +13419,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -13522,7 +13518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -13587,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -13624,7 +13620,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -13644,7 +13640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -13664,7 +13660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -13715,7 +13711,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -13735,7 +13731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -13755,7 +13751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -13823,7 +13819,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -13877,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -13948,7 +13944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -13982,7 +13978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -14002,7 +13998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -14019,7 +14015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -14039,7 +14035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -14056,7 +14052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -14118,7 +14114,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -14138,7 +14134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -14206,7 +14202,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -14328,7 +14324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -14348,7 +14344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -14365,7 +14361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -14399,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -14436,7 +14432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -14501,7 +14497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -14552,7 +14548,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -14583,7 +14579,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -14631,7 +14627,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -14665,7 +14661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -14682,7 +14678,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -14764,7 +14760,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -14784,7 +14780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -14801,7 +14797,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -14821,7 +14817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -14959,7 +14955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -15010,7 +15006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -15030,7 +15026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -15047,7 +15043,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -15081,7 +15077,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -15132,7 +15128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -15248,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -15302,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -15336,7 +15332,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -15384,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -15457,7 +15453,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -15477,7 +15473,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -15497,7 +15493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -15621,7 +15617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -15658,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -15743,7 +15739,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -15797,7 +15793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -15907,7 +15903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -15961,7 +15957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>368</v>
       </c>
@@ -15981,7 +15977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>369</v>
       </c>
@@ -16001,7 +15997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>370</v>
       </c>
@@ -16035,7 +16031,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>372</v>
       </c>
@@ -16052,7 +16048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>373</v>
       </c>
@@ -16089,7 +16085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>375</v>
       </c>
@@ -16140,7 +16136,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>378</v>
       </c>
@@ -16157,7 +16153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>379</v>
       </c>
@@ -16188,7 +16184,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>381</v>
       </c>
@@ -16208,7 +16204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>382</v>
       </c>
@@ -16259,7 +16255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>385</v>
       </c>
@@ -16279,7 +16275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>386</v>
       </c>
@@ -16296,7 +16292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>387</v>
       </c>
@@ -16316,7 +16312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>388</v>
       </c>
@@ -16364,7 +16360,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>391</v>
       </c>
@@ -16426,7 +16422,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>395</v>
       </c>
@@ -16477,7 +16473,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>398</v>
       </c>
@@ -16590,7 +16586,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="407" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>405</v>
       </c>
@@ -16610,7 +16606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>406</v>
       </c>
@@ -16630,7 +16626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>407</v>
       </c>
@@ -16695,7 +16691,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>411</v>
       </c>
@@ -16774,7 +16770,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>416</v>
       </c>
@@ -16811,7 +16807,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>418</v>
       </c>
@@ -16879,7 +16875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>422</v>
       </c>
@@ -16947,7 +16943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>426</v>
       </c>
@@ -16967,7 +16963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>427</v>
       </c>
@@ -16987,7 +16983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>428</v>
       </c>
@@ -17007,7 +17003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>429</v>
       </c>
@@ -17120,7 +17116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>436</v>
       </c>
@@ -17140,7 +17136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>437</v>
       </c>
@@ -17160,7 +17156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>438</v>
       </c>
@@ -17239,7 +17235,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>443</v>
       </c>
@@ -17324,7 +17320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>448</v>
       </c>
@@ -17378,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>451</v>
       </c>
@@ -17415,7 +17411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>453</v>
       </c>
@@ -17435,7 +17431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>454</v>
       </c>
@@ -17531,7 +17527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>460</v>
       </c>
@@ -17661,7 +17657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>468</v>
       </c>
@@ -17681,7 +17677,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>469</v>
       </c>
@@ -17701,7 +17697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>470</v>
       </c>
@@ -17721,7 +17717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>471</v>
       </c>
@@ -17741,7 +17737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>472</v>
       </c>
@@ -17891,7 +17887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>481</v>
       </c>
@@ -17911,7 +17907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>482</v>
       </c>
@@ -17931,7 +17927,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>483</v>
       </c>
@@ -17965,7 +17961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>485</v>
       </c>
@@ -18047,7 +18043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="492" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>490</v>
       </c>
@@ -18084,7 +18080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>492</v>
       </c>
@@ -18121,7 +18117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>494</v>
       </c>
@@ -18158,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>496</v>
       </c>
@@ -18178,7 +18174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>497</v>
       </c>
@@ -18229,7 +18225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>500</v>
       </c>
@@ -18249,7 +18245,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="503" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>501</v>
       </c>
@@ -18303,7 +18299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>504</v>
       </c>
@@ -18354,7 +18350,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="509" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>507</v>
       </c>
@@ -18374,7 +18370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>508</v>
       </c>
@@ -18439,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>512</v>
       </c>
@@ -18507,7 +18503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>516</v>
       </c>
@@ -18575,7 +18571,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>520</v>
       </c>
@@ -18592,7 +18588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>521</v>
       </c>
@@ -18612,7 +18608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>522</v>
       </c>
@@ -18660,7 +18656,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>525</v>
       </c>
@@ -18680,7 +18676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>526</v>
       </c>
@@ -18700,7 +18696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>527</v>
       </c>
@@ -18720,7 +18716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>528</v>
       </c>
@@ -18788,7 +18784,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="534" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>532</v>
       </c>
@@ -18808,7 +18804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>533</v>
       </c>
@@ -18842,7 +18838,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="537" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>535</v>
       </c>
@@ -18876,7 +18872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>537</v>
       </c>
@@ -18927,7 +18923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>540</v>
       </c>
@@ -18944,7 +18940,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="543" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>541</v>
       </c>
@@ -19009,7 +19005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="547" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>545</v>
       </c>
@@ -19043,7 +19039,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="549" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>547</v>
       </c>
@@ -19108,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>551</v>
       </c>
@@ -19128,7 +19124,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>552</v>
       </c>
@@ -19162,7 +19158,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="556" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>554</v>
       </c>
@@ -19213,7 +19209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>557</v>
       </c>
@@ -19233,7 +19229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>558</v>
       </c>
@@ -19253,7 +19249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>559</v>
       </c>
@@ -19287,7 +19283,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="563" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>561</v>
       </c>
@@ -19307,7 +19303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>562</v>
       </c>
@@ -19327,7 +19323,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="565" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>563</v>
       </c>
@@ -19361,7 +19357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567">
         <v>565</v>
       </c>
@@ -19392,7 +19388,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569">
         <v>567</v>
       </c>
@@ -19426,7 +19422,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="571" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571">
         <v>569</v>
       </c>
@@ -19491,7 +19487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>573</v>
       </c>
@@ -19528,7 +19524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>575</v>
       </c>
@@ -19616,7 +19612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>580</v>
       </c>
@@ -19647,7 +19643,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>582</v>
       </c>
@@ -19698,7 +19694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="587" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>585</v>
       </c>
@@ -19766,7 +19762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>589</v>
       </c>
@@ -19848,7 +19844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>594</v>
       </c>
@@ -20028,7 +20024,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="608" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608">
         <v>606</v>
       </c>
@@ -20079,7 +20075,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="611" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>609</v>
       </c>
@@ -20099,7 +20095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>610</v>
       </c>
@@ -20119,7 +20115,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="613" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>611</v>
       </c>
@@ -20153,7 +20149,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="615" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>613</v>
       </c>
@@ -20184,7 +20180,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="617" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>615</v>
       </c>
@@ -20246,7 +20242,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="621" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>619</v>
       </c>
@@ -20280,7 +20276,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="623" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>621</v>
       </c>
@@ -20297,7 +20293,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="624" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>622</v>
       </c>
@@ -20317,7 +20313,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="625" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>623</v>
       </c>
@@ -20334,7 +20330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>624</v>
       </c>
@@ -20354,7 +20350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>625</v>
       </c>
@@ -20388,7 +20384,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="629" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>627</v>
       </c>
@@ -20453,7 +20449,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>631</v>
       </c>
@@ -20563,7 +20559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640">
         <v>638</v>
       </c>
@@ -20597,7 +20593,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>640</v>
       </c>
@@ -20617,7 +20613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>641</v>
       </c>
@@ -20634,7 +20630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>642</v>
       </c>
@@ -20668,7 +20664,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>644</v>
       </c>
@@ -20699,7 +20695,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>646</v>
       </c>
@@ -20795,7 +20791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>652</v>
       </c>
@@ -20857,7 +20853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>656</v>
       </c>
@@ -20891,7 +20887,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="660" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>658</v>
       </c>
@@ -20990,7 +20986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>664</v>
       </c>
@@ -21010,7 +21006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="667" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>665</v>
       </c>
@@ -21030,7 +21026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="668" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>666</v>
       </c>
@@ -21050,7 +21046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>667</v>
       </c>
@@ -21118,7 +21114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>671</v>
       </c>
@@ -21166,7 +21162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="676" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>674</v>
       </c>
@@ -21245,7 +21241,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681">
         <v>679</v>
       </c>
@@ -21279,7 +21275,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="683" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683">
         <v>681</v>
       </c>
@@ -21313,7 +21309,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="685" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>683</v>
       </c>
@@ -21361,7 +21357,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>686</v>
       </c>
@@ -21440,7 +21436,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>691</v>
       </c>
@@ -21460,7 +21456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>692</v>
       </c>
@@ -21480,7 +21476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>693</v>
       </c>
@@ -21528,7 +21524,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>696</v>
       </c>
@@ -21545,7 +21541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>697</v>
       </c>
@@ -21565,7 +21561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>698</v>
       </c>
@@ -21596,7 +21592,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="702" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>700</v>
       </c>
@@ -21630,7 +21626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="704" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>702</v>
       </c>
@@ -21793,7 +21789,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715">
         <v>713</v>
       </c>
@@ -21813,7 +21809,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716">
         <v>714</v>
       </c>
@@ -21830,7 +21826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717">
         <v>715</v>
       </c>
@@ -21847,7 +21843,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718">
         <v>716</v>
       </c>
@@ -21867,7 +21863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719">
         <v>717</v>
       </c>
@@ -21904,7 +21900,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="721" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>719</v>
       </c>
@@ -21924,7 +21920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>720</v>
       </c>
@@ -21958,7 +21954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>722</v>
       </c>
@@ -21978,7 +21974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>723</v>
       </c>
@@ -22009,7 +22005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="727" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>725</v>
       </c>
@@ -22029,7 +22025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>726</v>
       </c>
@@ -22080,7 +22076,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="731" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>729</v>
       </c>
@@ -22097,7 +22093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>730</v>
       </c>
@@ -22145,7 +22141,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="735" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>733</v>
       </c>
@@ -22182,7 +22178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>735</v>
       </c>
@@ -22202,7 +22198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>736</v>
       </c>
@@ -22247,7 +22243,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="741" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>739</v>
       </c>
@@ -22292,7 +22288,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>742</v>
       </c>
@@ -22309,7 +22305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>743</v>
       </c>
@@ -22429,8 +22425,11 @@
       <c r="D752" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753">
         <v>751</v>
       </c>
@@ -22447,7 +22446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754">
         <v>752</v>
       </c>
@@ -22464,7 +22463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755">
         <v>753</v>
       </c>
@@ -22484,7 +22483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756">
         <v>754</v>
       </c>
@@ -22504,7 +22503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757">
         <v>755</v>
       </c>
@@ -22537,6 +22536,9 @@
       <c r="D758" s="1" t="s">
         <v>891</v>
       </c>
+      <c r="E758">
+        <v>0</v>
+      </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759">
@@ -22566,7 +22568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="761" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>759</v>
       </c>
@@ -22641,8 +22643,11 @@
       <c r="D765" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="766" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>764</v>
       </c>
@@ -22662,7 +22667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>765</v>
       </c>
@@ -22695,6 +22700,9 @@
       <c r="D768" s="1" t="s">
         <v>648</v>
       </c>
+      <c r="E768">
+        <v>0</v>
+      </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769">
@@ -22709,6 +22717,9 @@
       <c r="D769" s="1" t="s">
         <v>1029</v>
       </c>
+      <c r="E769">
+        <v>0</v>
+      </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770">
@@ -22723,6 +22734,9 @@
       <c r="D770" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E770">
+        <v>0</v>
+      </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771">
@@ -22737,6 +22751,9 @@
       <c r="D771" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="E771">
+        <v>0</v>
+      </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772">
@@ -22780,7 +22797,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="775" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>773</v>
       </c>
@@ -22797,7 +22814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>774</v>
       </c>
@@ -22817,7 +22834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>775</v>
       </c>
@@ -22864,6 +22881,9 @@
       <c r="D779" s="1" t="s">
         <v>1041</v>
       </c>
+      <c r="E779">
+        <v>0</v>
+      </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780">
@@ -22878,6 +22898,9 @@
       <c r="D780" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E780">
+        <v>0</v>
+      </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781">
@@ -22893,7 +22916,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>780</v>
       </c>
@@ -22913,7 +22936,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="783" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>781</v>
       </c>
@@ -22933,7 +22956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>782</v>
       </c>
@@ -22953,7 +22976,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>783</v>
       </c>
@@ -22970,7 +22993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>784</v>
       </c>
@@ -23014,6 +23037,9 @@
       <c r="D788" s="1" t="s">
         <v>1054</v>
       </c>
+      <c r="E788">
+        <v>0</v>
+      </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789">
@@ -23028,8 +23054,11 @@
       <c r="D789" s="1" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="790" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790">
         <v>788</v>
       </c>
@@ -23049,7 +23078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791">
         <v>789</v>
       </c>
@@ -23083,7 +23112,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="793" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793">
         <v>791</v>
       </c>
@@ -23114,7 +23143,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="795" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>793</v>
       </c>
@@ -23147,8 +23176,11 @@
       <c r="D796" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="797" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>795</v>
       </c>
@@ -23182,7 +23214,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="799" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>797</v>
       </c>
@@ -23226,6 +23258,9 @@
       <c r="D801" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="E801">
+        <v>0</v>
+      </c>
     </row>
     <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802">
@@ -23240,6 +23275,9 @@
       <c r="D802" s="1" t="s">
         <v>487</v>
       </c>
+      <c r="E802">
+        <v>0</v>
+      </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803">
@@ -23255,7 +23293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="804" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>802</v>
       </c>
@@ -23272,7 +23310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>803</v>
       </c>
@@ -23289,7 +23327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>804</v>
       </c>
@@ -23336,8 +23374,11 @@
       <c r="D808" s="1" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="809" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>807</v>
       </c>
@@ -23354,7 +23395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>808</v>
       </c>
@@ -23413,7 +23454,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="814" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>812</v>
       </c>
@@ -23446,8 +23487,11 @@
       <c r="D815" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="816" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>814</v>
       </c>
@@ -23478,7 +23522,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="818" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>816</v>
       </c>
@@ -23539,6 +23583,9 @@
       <c r="D821" s="1" t="s">
         <v>154</v>
       </c>
+      <c r="E821">
+        <v>0</v>
+      </c>
     </row>
     <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822">
@@ -23554,7 +23601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="823" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>821</v>
       </c>
@@ -23574,7 +23621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>822</v>
       </c>
@@ -23594,7 +23641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825">
         <v>823</v>
       </c>
@@ -23653,7 +23700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="829" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829">
         <v>827</v>
       </c>
@@ -23701,7 +23748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="832" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832">
         <v>830</v>
       </c>
@@ -23745,6 +23792,9 @@
       <c r="D834" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E834">
+        <v>0</v>
+      </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835">
@@ -23760,7 +23810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="836" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836">
         <v>834</v>
       </c>
@@ -23804,6 +23854,9 @@
       <c r="D838" s="1" t="s">
         <v>1117</v>
       </c>
+      <c r="E838">
+        <v>0</v>
+      </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839">
@@ -23818,6 +23871,9 @@
       <c r="D839" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="E839">
+        <v>0</v>
+      </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840">
@@ -23833,7 +23889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841">
         <v>839</v>
       </c>
@@ -23867,7 +23923,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="843" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843">
         <v>841</v>
       </c>
@@ -23898,7 +23954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="845" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845">
         <v>843</v>
       </c>
@@ -23915,7 +23971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846">
         <v>844</v>
       </c>
@@ -23948,6 +24004,9 @@
       <c r="D847" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E847">
+        <v>-1</v>
+      </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848">
@@ -23977,7 +24036,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850">
         <v>848</v>
       </c>
@@ -24011,7 +24070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="852" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852">
         <v>850</v>
       </c>
@@ -24059,7 +24118,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855">
         <v>853</v>
       </c>
@@ -24076,7 +24135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856">
         <v>854</v>
       </c>
@@ -24096,7 +24155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857">
         <v>855</v>
       </c>
@@ -24143,6 +24202,9 @@
       <c r="D859" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E859">
+        <v>0</v>
+      </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860">
@@ -24185,8 +24247,11 @@
       <c r="D862" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="863" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863">
         <v>861</v>
       </c>
@@ -24217,7 +24282,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="865" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865">
         <v>863</v>
       </c>
@@ -24279,7 +24344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="869" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869">
         <v>867</v>
       </c>
@@ -24326,8 +24391,11 @@
       <c r="D871" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="872" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872">
         <v>870</v>
       </c>
@@ -24347,7 +24415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873">
         <v>871</v>
       </c>
@@ -24392,7 +24460,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="876" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876">
         <v>874</v>
       </c>
@@ -24439,8 +24507,11 @@
       <c r="D878" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="879" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879">
         <v>877</v>
       </c>
@@ -24473,6 +24544,9 @@
       <c r="D880" s="1" t="s">
         <v>1169</v>
       </c>
+      <c r="E880">
+        <v>0</v>
+      </c>
     </row>
     <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881">
@@ -24502,7 +24576,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="883" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883">
         <v>881</v>
       </c>
@@ -24519,7 +24593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884">
         <v>882</v>
       </c>
@@ -24550,7 +24624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="886" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886">
         <v>884</v>
       </c>
@@ -24570,7 +24644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887">
         <v>885</v>
       </c>
@@ -24590,7 +24664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888">
         <v>886</v>
       </c>
@@ -24607,7 +24681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889">
         <v>887</v>
       </c>
@@ -24682,8 +24756,11 @@
       <c r="D893" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="894" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894">
         <v>892</v>
       </c>
@@ -24727,6 +24804,9 @@
       <c r="D896" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="E896">
+        <v>0</v>
+      </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897">
@@ -24742,7 +24822,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="898" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898">
         <v>896</v>
       </c>
@@ -24803,6 +24883,9 @@
       <c r="D901" s="1" t="s">
         <v>400</v>
       </c>
+      <c r="E901">
+        <v>0</v>
+      </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A902">
@@ -24831,8 +24914,11 @@
       <c r="D903" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="904" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A904">
         <v>902</v>
       </c>
@@ -24862,8 +24948,11 @@
       <c r="D905" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="906" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A906">
         <v>904</v>
       </c>
@@ -24883,7 +24972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A907">
         <v>905</v>
       </c>
@@ -24917,7 +25006,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="909" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A909">
         <v>907</v>
       </c>
@@ -24937,7 +25026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A910">
         <v>908</v>
       </c>
@@ -24970,6 +25059,9 @@
       <c r="D911" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E911">
+        <v>0</v>
+      </c>
     </row>
     <row r="912" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A912">
@@ -24985,7 +25077,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="913" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A913">
         <v>911</v>
       </c>
@@ -25060,6 +25152,9 @@
       <c r="D917" s="1" t="s">
         <v>1212</v>
       </c>
+      <c r="E917">
+        <v>-1</v>
+      </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A918">
@@ -25089,7 +25184,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="920" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A920">
         <v>918</v>
       </c>
@@ -25106,7 +25201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A921">
         <v>919</v>
       </c>
@@ -25123,7 +25218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A922">
         <v>920</v>
       </c>
@@ -25143,7 +25238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A923">
         <v>921</v>
       </c>
@@ -25163,7 +25258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A924">
         <v>922</v>
       </c>
@@ -25193,6 +25288,9 @@
       <c r="D925" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E925">
+        <v>0</v>
+      </c>
     </row>
     <row r="926" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A926">
@@ -25221,6 +25319,9 @@
       <c r="D927" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E927">
+        <v>0</v>
+      </c>
     </row>
     <row r="928" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A928">
@@ -25264,7 +25365,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="931" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A931">
         <v>929</v>
       </c>
@@ -25284,7 +25385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A932">
         <v>930</v>
       </c>
@@ -25329,7 +25430,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="935" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A935">
         <v>933</v>
       </c>
@@ -25359,8 +25460,11 @@
       <c r="D936" s="1" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="937" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E936">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A937">
         <v>935</v>
       </c>
@@ -25391,7 +25495,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="939" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A939">
         <v>937</v>
       </c>
@@ -25467,7 +25571,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="944" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A944">
         <v>942</v>
       </c>
@@ -25543,7 +25647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="949" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A949">
         <v>947</v>
       </c>
@@ -25590,8 +25694,11 @@
       <c r="D951" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="952" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E951">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>950</v>
       </c>
@@ -25638,6 +25745,9 @@
       <c r="D954" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="E954">
+        <v>0</v>
+      </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A955">
@@ -25652,8 +25762,11 @@
       <c r="D955" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="956" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A956">
         <v>954</v>
       </c>
@@ -25673,7 +25786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A957">
         <v>955</v>
       </c>
@@ -25693,7 +25806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A958">
         <v>956</v>
       </c>
@@ -25710,7 +25823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A959">
         <v>957</v>
       </c>
@@ -25744,7 +25857,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="961" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A961">
         <v>959</v>
       </c>
@@ -25791,6 +25904,9 @@
       <c r="D963" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E963">
+        <v>0</v>
+      </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A964">
@@ -25805,6 +25921,9 @@
       <c r="D964" s="1" t="s">
         <v>128</v>
       </c>
+      <c r="E964">
+        <v>-1</v>
+      </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A965">
@@ -25820,7 +25939,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="966" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A966">
         <v>964</v>
       </c>
@@ -25853,6 +25972,9 @@
       <c r="D967" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E967">
+        <v>0</v>
+      </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A968">
@@ -25881,8 +26003,11 @@
       <c r="D969" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="970" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A970">
         <v>968</v>
       </c>
@@ -25913,7 +26038,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="972" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A972">
         <v>970</v>
       </c>
@@ -25946,8 +26071,11 @@
       <c r="D973" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="974" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A974">
         <v>972</v>
       </c>
@@ -26009,7 +26137,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="978" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A978">
         <v>976</v>
       </c>
@@ -26085,7 +26213,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="983" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A983">
         <v>981</v>
       </c>
@@ -26133,7 +26261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="986" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A986">
         <v>984</v>
       </c>
@@ -26166,6 +26294,9 @@
       <c r="D987" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E987">
+        <v>0</v>
+      </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A988">
@@ -26181,7 +26312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="989" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A989">
         <v>987</v>
       </c>
@@ -26201,7 +26332,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="990" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A990">
         <v>988</v>
       </c>
@@ -26235,7 +26366,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="992" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A992">
         <v>990</v>
       </c>
@@ -26252,7 +26383,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="993" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A993">
         <v>991</v>
       </c>
@@ -26324,8 +26455,11 @@
       <c r="D997" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="998" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A998">
         <v>996</v>
       </c>
@@ -26342,7 +26476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A999">
         <v>997</v>
       </c>
@@ -26362,7 +26496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1000">
         <v>998</v>
       </c>
@@ -26406,6 +26540,9 @@
       <c r="D1002" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E1002">
+        <v>0</v>
+      </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1003">
@@ -26421,7 +26558,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1004" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1004">
         <v>1002</v>
       </c>
@@ -26451,6 +26588,9 @@
       <c r="D1005" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E1005">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1006">
@@ -26480,7 +26620,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1008" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1008">
         <v>1006</v>
       </c>
@@ -26497,7 +26637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1009">
         <v>1007</v>
       </c>
@@ -26528,7 +26668,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="1011" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1011">
         <v>1009</v>
       </c>
@@ -26545,7 +26685,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1012" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1012">
         <v>1010</v>
       </c>
@@ -26562,7 +26702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1013">
         <v>1011</v>
       </c>
@@ -26593,7 +26733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1015" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1015">
         <v>1013</v>
       </c>
@@ -26610,7 +26750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1016" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1016">
         <v>1014</v>
       </c>
@@ -26671,6 +26811,9 @@
       <c r="D1019" s="1" t="s">
         <v>441</v>
       </c>
+      <c r="E1019">
+        <v>0</v>
+      </c>
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1020">
@@ -26686,7 +26829,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="1021" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1021">
         <v>1019</v>
       </c>
@@ -26716,6 +26859,9 @@
       <c r="D1022" s="1" t="s">
         <v>119</v>
       </c>
+      <c r="E1022">
+        <v>-1</v>
+      </c>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1023">
@@ -26731,7 +26877,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="1024" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1024">
         <v>1022</v>
       </c>
@@ -26748,7 +26894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1025" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1025">
         <v>1023</v>
       </c>
@@ -26778,8 +26924,11 @@
       <c r="D1026" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="1027" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1026">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1027">
         <v>1025</v>
       </c>
@@ -26796,7 +26945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1028" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1028">
         <v>1026</v>
       </c>
@@ -26813,7 +26962,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1029" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1029">
         <v>1027</v>
       </c>
@@ -26874,8 +27023,11 @@
       <c r="D1032" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="1033" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1032">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1033">
         <v>1031</v>
       </c>
@@ -26892,7 +27044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1034">
         <v>1032</v>
       </c>
@@ -26936,6 +27088,9 @@
       <c r="D1036" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="E1036">
+        <v>0</v>
+      </c>
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1037">
@@ -26992,6 +27147,9 @@
       <c r="D1040" s="1" t="s">
         <v>573</v>
       </c>
+      <c r="E1040">
+        <v>0</v>
+      </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1041">
@@ -27035,7 +27193,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="1044" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1044">
         <v>1042</v>
       </c>
@@ -27065,8 +27223,11 @@
       <c r="D1045" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="1046" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1045">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1046">
         <v>1044</v>
       </c>
@@ -27097,7 +27258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1048" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1048">
         <v>1046</v>
       </c>
@@ -27130,6 +27291,9 @@
       <c r="D1049" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E1049">
+        <v>0</v>
+      </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1050">
@@ -27159,7 +27323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1052" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1052">
         <v>1050</v>
       </c>
@@ -27192,8 +27356,11 @@
       <c r="D1053" s="1" t="s">
         <v>1370</v>
       </c>
-    </row>
-    <row r="1054" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1053">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1054">
         <v>1052</v>
       </c>
@@ -27210,7 +27377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1055" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1055">
         <v>1053</v>
       </c>
@@ -27244,7 +27411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1057" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1057">
         <v>1055</v>
       </c>
@@ -27261,7 +27428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1058" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1058">
         <v>1056</v>
       </c>
@@ -27295,7 +27462,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1060" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1060">
         <v>1058</v>
       </c>
@@ -27343,7 +27510,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="1063" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1063">
         <v>1061</v>
       </c>
@@ -27391,7 +27558,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="1066" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1066">
         <v>1064</v>
       </c>
@@ -27436,7 +27603,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="1069" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1069">
         <v>1067</v>
       </c>
@@ -27453,7 +27620,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1070" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1070">
         <v>1068</v>
       </c>
@@ -27470,7 +27637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1071" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1071">
         <v>1069</v>
       </c>
@@ -27529,7 +27696,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1075" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1075">
         <v>1073</v>
       </c>
@@ -27559,6 +27726,9 @@
       <c r="D1076" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E1076">
+        <v>-1</v>
+      </c>
     </row>
     <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1077">
@@ -27573,6 +27743,9 @@
       <c r="D1077" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E1077">
+        <v>-1</v>
+      </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1078">
@@ -27588,7 +27761,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1079" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1079">
         <v>1077</v>
       </c>
@@ -27605,7 +27778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1080" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1080">
         <v>1078</v>
       </c>
@@ -27622,7 +27795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1081" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1081">
         <v>1079</v>
       </c>
@@ -27681,7 +27854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1085" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1085">
         <v>1083</v>
       </c>
@@ -27753,8 +27926,11 @@
       <c r="D1089" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="1090" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1089">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1090">
         <v>1088</v>
       </c>
@@ -27798,8 +27974,11 @@
       <c r="D1092" s="1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="1093" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1092">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1093">
         <v>1091</v>
       </c>
@@ -27829,6 +28008,9 @@
       <c r="D1094" s="1" t="s">
         <v>1419</v>
       </c>
+      <c r="E1094">
+        <v>0</v>
+      </c>
     </row>
     <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1095">
@@ -27844,7 +28026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1096" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1096">
         <v>1094</v>
       </c>
@@ -27861,7 +28043,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1097" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1097">
         <v>1095</v>
       </c>
@@ -27878,7 +28060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1098" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1098">
         <v>1096</v>
       </c>
@@ -27925,6 +28107,9 @@
       <c r="D1100" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E1100">
+        <v>0</v>
+      </c>
     </row>
     <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1101">
@@ -27939,8 +28124,11 @@
       <c r="D1101" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="1102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1102">
         <v>1100</v>
       </c>
@@ -27984,6 +28172,9 @@
       <c r="D1104" s="1" t="s">
         <v>865</v>
       </c>
+      <c r="E1104">
+        <v>0</v>
+      </c>
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1105">
@@ -28012,6 +28203,9 @@
       <c r="D1106" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E1106">
+        <v>0</v>
+      </c>
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1107">
@@ -28026,6 +28220,9 @@
       <c r="D1107" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E1107">
+        <v>0</v>
+      </c>
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1108">
@@ -28040,8 +28237,11 @@
       <c r="D1108" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="1109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1109">
         <v>1107</v>
       </c>
@@ -28058,7 +28258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1110">
         <v>1108</v>
       </c>
@@ -28075,7 +28275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1111">
         <v>1109</v>
       </c>
@@ -28092,7 +28292,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1112">
         <v>1110</v>
       </c>
@@ -28122,6 +28322,9 @@
       <c r="D1113" s="1" t="s">
         <v>708</v>
       </c>
+      <c r="E1113">
+        <v>0</v>
+      </c>
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1114">
@@ -28151,7 +28354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="1116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1116">
         <v>1114</v>
       </c>
@@ -28171,7 +28374,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1117">
         <v>1115</v>
       </c>
@@ -28201,8 +28404,11 @@
       <c r="D1118" s="1" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="1119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1119">
         <v>1117</v>
       </c>
@@ -28246,8 +28452,11 @@
       <c r="D1121" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="1122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1122">
         <v>1120</v>
       </c>
@@ -28267,7 +28476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1123">
         <v>1121</v>
       </c>
@@ -28315,7 +28524,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1126">
         <v>1124</v>
       </c>
@@ -28359,6 +28568,9 @@
       <c r="D1128" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E1128">
+        <v>1</v>
+      </c>
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1129">
@@ -28387,6 +28599,9 @@
       <c r="D1130" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="E1130">
+        <v>0</v>
+      </c>
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1131">
@@ -28402,7 +28617,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="1132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1132">
         <v>1130</v>
       </c>
@@ -28446,8 +28661,11 @@
       <c r="D1134" s="1" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="1135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1135">
         <v>1133</v>
       </c>
@@ -28508,6 +28726,9 @@
       <c r="D1138" s="1" t="s">
         <v>1468</v>
       </c>
+      <c r="E1138">
+        <v>0</v>
+      </c>
     </row>
     <row r="1139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1139">
@@ -28522,8 +28743,11 @@
       <c r="D1139" s="1" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="1140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1140">
         <v>1138</v>
       </c>
@@ -28556,8 +28780,11 @@
       <c r="D1141" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="1142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1142">
         <v>1140</v>
       </c>
@@ -28577,7 +28804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1143">
         <v>1141</v>
       </c>
@@ -28597,7 +28824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1144">
         <v>1142</v>
       </c>
@@ -28644,6 +28871,9 @@
       <c r="D1146" s="1" t="s">
         <v>132</v>
       </c>
+      <c r="E1146">
+        <v>-1</v>
+      </c>
     </row>
     <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1147">
@@ -28701,7 +28931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1151">
         <v>1149</v>
       </c>
@@ -28763,7 +28993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1155">
         <v>1153</v>
       </c>
@@ -28797,7 +29027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1157">
         <v>1155</v>
       </c>
@@ -28814,7 +29044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1158">
         <v>1156</v>
       </c>
@@ -28929,7 +29159,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="1166" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1166">
         <v>1164</v>
       </c>
@@ -28946,7 +29176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1167" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1167">
         <v>1165</v>
       </c>
@@ -28966,7 +29196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1168" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1168">
         <v>1166</v>
       </c>
@@ -29024,8 +29254,11 @@
       <c r="D1171" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="1172" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1172">
         <v>1170</v>
       </c>
@@ -29042,7 +29275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1173" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1173">
         <v>1171</v>
       </c>
@@ -29075,8 +29308,11 @@
       <c r="D1174" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="1175" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1175">
         <v>1173</v>
       </c>
@@ -29096,7 +29332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1176" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1176">
         <v>1174</v>
       </c>
@@ -29116,7 +29352,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1177" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1177">
         <v>1175</v>
       </c>
@@ -29150,7 +29386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1179" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1179">
         <v>1177</v>
       </c>
@@ -29180,8 +29416,11 @@
       <c r="D1180" s="1" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="1181" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1181">
         <v>1179</v>
       </c>
@@ -29211,6 +29450,9 @@
       <c r="D1182" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="E1182">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1183">
@@ -29225,8 +29467,11 @@
       <c r="D1183" s="1" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="1184" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1184">
         <v>1182</v>
       </c>
@@ -29257,7 +29502,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1186">
         <v>1184</v>
       </c>
@@ -29277,7 +29522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1187">
         <v>1185</v>
       </c>
@@ -29297,7 +29542,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="1188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1188">
         <v>1186</v>
       </c>
@@ -29314,7 +29559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1189">
         <v>1187</v>
       </c>
@@ -29331,7 +29576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1190">
         <v>1188</v>
       </c>
@@ -29378,6 +29623,9 @@
       <c r="D1192" s="1" t="s">
         <v>1534</v>
       </c>
+      <c r="E1192">
+        <v>0</v>
+      </c>
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1193">
@@ -29392,6 +29640,9 @@
       <c r="D1193" s="1" t="s">
         <v>1536</v>
       </c>
+      <c r="E1193">
+        <v>0</v>
+      </c>
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1194">
@@ -29434,6 +29685,9 @@
       <c r="D1196" s="1" t="s">
         <v>256</v>
       </c>
+      <c r="E1196">
+        <v>1</v>
+      </c>
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1197">
@@ -29448,8 +29702,11 @@
       <c r="D1197" s="1" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="1198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1197">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1198">
         <v>1196</v>
       </c>
@@ -29494,7 +29751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1201" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1201">
         <v>1199</v>
       </c>
@@ -29528,7 +29785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1203" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1203">
         <v>1201</v>
       </c>
@@ -29603,8 +29860,11 @@
       <c r="D1207" s="1" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="1208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E1207">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1208">
         <v>1206</v>
       </c>
@@ -29648,6 +29908,9 @@
       <c r="D1210" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E1210">
+        <v>0</v>
+      </c>
     </row>
     <row r="1211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1211">
@@ -29662,6 +29925,9 @@
       <c r="D1211" s="1" t="s">
         <v>1557</v>
       </c>
+      <c r="E1211">
+        <v>0</v>
+      </c>
     </row>
     <row r="1212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1212">
@@ -29676,6 +29942,9 @@
       <c r="D1212" s="1" t="s">
         <v>196</v>
       </c>
+      <c r="E1212">
+        <v>0</v>
+      </c>
     </row>
     <row r="1213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1213">
@@ -29691,7 +29960,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="1214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1214">
         <v>1212</v>
       </c>
@@ -29711,7 +29980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1215">
         <v>1213</v>
       </c>
@@ -29801,7 +30070,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="1221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1221">
         <v>1219</v>
       </c>
@@ -29834,6 +30103,9 @@
       <c r="D1222" s="1" t="s">
         <v>899</v>
       </c>
+      <c r="E1222">
+        <v>0</v>
+      </c>
     </row>
     <row r="1223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1223">
@@ -29849,7 +30121,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1224">
         <v>1222</v>
       </c>
@@ -29925,7 +30197,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="1229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1229">
         <v>1227</v>
       </c>
@@ -29942,7 +30214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1230">
         <v>1228</v>
       </c>
@@ -29990,7 +30262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1233" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1233">
         <v>1231</v>
       </c>
@@ -30049,7 +30321,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="1237" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1237">
         <v>1235</v>
       </c>
@@ -30097,7 +30369,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1240" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1240">
         <v>1238</v>
       </c>
@@ -30114,7 +30386,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1241" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1241">
         <v>1239</v>
       </c>
@@ -30204,7 +30476,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1247" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1247">
         <v>1245</v>
       </c>
@@ -30252,7 +30524,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="1250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1250">
         <v>1248</v>
       </c>
@@ -30297,7 +30569,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1253">
         <v>1251</v>
       </c>
@@ -30342,7 +30614,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="1256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1256">
         <v>1254</v>
       </c>
@@ -30362,7 +30634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1257">
         <v>1255</v>
       </c>
@@ -30379,7 +30651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1258">
         <v>1256</v>
       </c>
@@ -30396,7 +30668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1259">
         <v>1257</v>
       </c>
@@ -30444,7 +30716,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1262">
         <v>1260</v>
       </c>
@@ -30534,7 +30806,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="1268" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1268">
         <v>1266</v>
       </c>
@@ -30554,7 +30826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1269">
         <v>1267</v>
       </c>
@@ -30616,7 +30888,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="1273" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1273">
         <v>1271</v>
       </c>
@@ -30633,7 +30905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1274" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1274">
         <v>1272</v>
       </c>
@@ -30664,7 +30936,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="1276" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1276">
         <v>1274</v>
       </c>
@@ -30681,7 +30953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1277" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1277">
         <v>1275</v>
       </c>
@@ -30715,7 +30987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1279" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1279">
         <v>1277</v>
       </c>
@@ -30735,7 +31007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1280" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1280">
         <v>1278</v>
       </c>
@@ -30755,7 +31027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1281" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1281">
         <v>1279</v>
       </c>
@@ -30772,7 +31044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1282" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1282">
         <v>1280</v>
       </c>
@@ -30803,7 +31075,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="1284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1284">
         <v>1282</v>
       </c>
@@ -30834,7 +31106,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="1286" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1286">
         <v>1284</v>
       </c>
@@ -30865,7 +31137,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="1288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1288">
         <v>1286</v>
       </c>
@@ -30910,7 +31182,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="1291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1291">
         <v>1289</v>
       </c>
@@ -30986,7 +31258,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="1296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1296">
         <v>1294</v>
       </c>
@@ -31006,7 +31278,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1297">
         <v>1295</v>
       </c>
@@ -31037,7 +31309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1299">
         <v>1297</v>
       </c>
@@ -31068,7 +31340,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="1301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1301">
         <v>1299</v>
       </c>
@@ -31113,7 +31385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1304">
         <v>1302</v>
       </c>
@@ -31130,7 +31402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1305" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1305">
         <v>1303</v>
       </c>
@@ -31164,7 +31436,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="1307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1307">
         <v>1305</v>
       </c>
@@ -31181,7 +31453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1308">
         <v>1306</v>
       </c>
@@ -31212,7 +31484,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1310">
         <v>1308</v>
       </c>
@@ -31232,7 +31504,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1311" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1311">
         <v>1309</v>
       </c>
@@ -31252,7 +31524,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1312">
         <v>1310</v>
       </c>
@@ -31272,7 +31544,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1313">
         <v>1311</v>
       </c>
@@ -31306,7 +31578,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1315">
         <v>1313</v>
       </c>
@@ -31396,7 +31668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1321">
         <v>1319</v>
       </c>
@@ -31441,7 +31713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1324">
         <v>1322</v>
       </c>
@@ -31500,7 +31772,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1328">
         <v>1326</v>
       </c>
@@ -31517,7 +31789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1329">
         <v>1327</v>
       </c>
@@ -31576,7 +31848,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="1333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1333">
         <v>1331</v>
       </c>
@@ -31596,7 +31868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1334">
         <v>1332</v>
       </c>
@@ -31672,7 +31944,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="1339" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1339">
         <v>1337</v>
       </c>
@@ -31689,7 +31961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1340" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1340">
         <v>1338</v>
       </c>
@@ -31723,7 +31995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1342" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1342">
         <v>1340</v>
       </c>
@@ -31743,7 +32015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1343" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1343">
         <v>1341</v>
       </c>
@@ -31802,7 +32074,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="1347" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1347">
         <v>1345</v>
       </c>
@@ -31861,7 +32133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1351" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1351">
         <v>1349</v>
       </c>
@@ -31881,7 +32153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1352">
         <v>1350</v>
       </c>
@@ -31898,7 +32170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1353">
         <v>1351</v>
       </c>
@@ -31929,7 +32201,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="1355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1355">
         <v>1353</v>
       </c>
@@ -31949,7 +32221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1356">
         <v>1354</v>
       </c>
@@ -31969,7 +32241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1357">
         <v>1355</v>
       </c>
@@ -32003,7 +32275,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="1359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1359">
         <v>1357</v>
       </c>
@@ -32034,7 +32306,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="1361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1361">
         <v>1359</v>
       </c>
@@ -32051,7 +32323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1362">
         <v>1360</v>
       </c>
@@ -32071,7 +32343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1363">
         <v>1361</v>
       </c>
@@ -32105,7 +32377,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="1365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1365">
         <v>1363</v>
       </c>
@@ -32139,7 +32411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1367">
         <v>1365</v>
       </c>
@@ -32187,7 +32459,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="1370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1370">
         <v>1368</v>
       </c>
@@ -32204,7 +32476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1371">
         <v>1369</v>
       </c>
@@ -32221,7 +32493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1372">
         <v>1370</v>
       </c>
@@ -32252,7 +32524,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="1374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1374">
         <v>1372</v>
       </c>
@@ -32300,7 +32572,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="1377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1377">
         <v>1375</v>
       </c>
@@ -32362,7 +32634,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="1381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1381">
         <v>1379</v>
       </c>
@@ -32396,7 +32668,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="1383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1383">
         <v>1381</v>
       </c>
@@ -32430,7 +32702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1385">
         <v>1383</v>
       </c>
@@ -32548,7 +32820,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="1393" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1393">
         <v>1391</v>
       </c>
@@ -32571,7 +32843,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="1394" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1394">
         <v>1392</v>
       </c>
@@ -32591,7 +32863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1395" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1395">
         <v>1393</v>
       </c>
@@ -32650,7 +32922,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="1399" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1399">
         <v>1397</v>
       </c>
@@ -32740,7 +33012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1405">
         <v>1403</v>
       </c>
@@ -32872,7 +33144,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="1414" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1414">
         <v>1412</v>
       </c>
@@ -32903,7 +33175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1416" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1416">
         <v>1414</v>
       </c>
@@ -32923,7 +33195,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1417" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1417">
         <v>1415</v>
       </c>
@@ -32954,7 +33226,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1419" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1419">
         <v>1417</v>
       </c>
@@ -33030,7 +33302,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1424" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1424">
         <v>1422</v>
       </c>
@@ -33047,7 +33319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1425" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1425">
         <v>1423</v>
       </c>
@@ -33109,7 +33381,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1429">
         <v>1427</v>
       </c>
@@ -33154,7 +33426,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="1432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1432">
         <v>1430</v>
       </c>
@@ -33171,7 +33443,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1433">
         <v>1431</v>
       </c>
@@ -33202,7 +33474,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1435">
         <v>1433</v>
       </c>
@@ -33219,7 +33491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1436">
         <v>1434</v>
       </c>
@@ -33250,7 +33522,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="1438" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1438">
         <v>1436</v>
       </c>
@@ -33281,7 +33553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1440">
         <v>1438</v>
       </c>
@@ -33357,7 +33629,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1445" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1445">
         <v>1443</v>
       </c>
@@ -33433,7 +33705,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1450">
         <v>1448</v>
       </c>
@@ -33478,7 +33750,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="1453" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1453">
         <v>1451</v>
       </c>
@@ -33523,7 +33795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1456" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1456">
         <v>1454</v>
       </c>
@@ -33540,7 +33812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1457" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1457">
         <v>1455</v>
       </c>
@@ -33616,7 +33888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1462" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1462">
         <v>1460</v>
       </c>
@@ -33636,7 +33908,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1463" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1463">
         <v>1461</v>
       </c>
@@ -33726,7 +33998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1469">
         <v>1467</v>
       </c>
@@ -33760,7 +34032,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="1471" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1471">
         <v>1469</v>
       </c>
@@ -33805,7 +34077,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="1474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1474">
         <v>1472</v>
       </c>
@@ -33836,7 +34108,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="1476" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1476">
         <v>1474</v>
       </c>
@@ -33856,7 +34128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1477" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1477">
         <v>1475</v>
       </c>
@@ -33873,7 +34145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1478" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1478">
         <v>1476</v>
       </c>
@@ -33907,7 +34179,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="1480" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1480">
         <v>1478</v>
       </c>
@@ -33969,7 +34241,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1484" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1484">
         <v>1482</v>
       </c>
@@ -34000,7 +34272,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="1486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1486">
         <v>1484</v>
       </c>
@@ -34062,7 +34334,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="1490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1490">
         <v>1488</v>
       </c>
@@ -34135,7 +34407,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="1495" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1495">
         <v>1493</v>
       </c>
@@ -34208,7 +34480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1500" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1500">
         <v>1498</v>
       </c>
@@ -34225,7 +34497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1501">
         <v>1499</v>
       </c>
@@ -34326,7 +34598,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="1508" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1508">
         <v>1506</v>
       </c>
@@ -34371,7 +34643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1511" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1511">
         <v>1509</v>
       </c>
@@ -34444,7 +34716,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="1516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1516">
         <v>1514</v>
       </c>
@@ -34461,7 +34733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1517" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1517">
         <v>1515</v>
       </c>
@@ -34520,7 +34792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1521" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1521">
         <v>1519</v>
       </c>
@@ -34537,7 +34809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1522" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1522">
         <v>1520</v>
       </c>
@@ -34554,7 +34826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1523" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1523">
         <v>1521</v>
       </c>
@@ -34585,7 +34857,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1525" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1525">
         <v>1523</v>
       </c>
@@ -34616,7 +34888,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1527" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1527">
         <v>1525</v>
       </c>
@@ -34636,7 +34908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1528" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1528">
         <v>1526</v>
       </c>
@@ -34667,7 +34939,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="1530" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1530">
         <v>1528</v>
       </c>
@@ -34701,7 +34973,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="1532" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1532">
         <v>1530</v>
       </c>
@@ -34718,7 +34990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1533" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1533">
         <v>1531</v>
       </c>
@@ -34749,7 +35021,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="1535" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1535">
         <v>1533</v>
       </c>
@@ -34769,7 +35041,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1536" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1536">
         <v>1534</v>
       </c>
@@ -34915,7 +35187,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="1546" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1546">
         <v>1544</v>
       </c>
@@ -34949,7 +35221,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="1548" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1548">
         <v>1546</v>
       </c>
@@ -34983,7 +35255,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1550" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1550">
         <v>1548</v>
       </c>
@@ -35003,7 +35275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1551">
         <v>1549</v>
       </c>
@@ -35051,7 +35323,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1554" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1554">
         <v>1552</v>
       </c>
@@ -35082,7 +35354,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="1556" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1556">
         <v>1554</v>
       </c>
@@ -35102,7 +35374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1557" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1557">
         <v>1555</v>
       </c>
@@ -35122,7 +35394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1558" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1558">
         <v>1556</v>
       </c>
@@ -35184,7 +35456,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="1562" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1562">
         <v>1560</v>
       </c>
@@ -35204,7 +35476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1563" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1563">
         <v>1561</v>
       </c>
@@ -35249,7 +35521,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1566" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1566">
         <v>1564</v>
       </c>
@@ -35283,7 +35555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1568" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1568">
         <v>1566</v>
       </c>
@@ -35317,7 +35589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1570" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1570">
         <v>1568</v>
       </c>
@@ -35365,7 +35637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1573" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1573">
         <v>1571</v>
       </c>
@@ -35396,7 +35668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1575">
         <v>1573</v>
       </c>
@@ -35455,7 +35727,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="1579" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1579">
         <v>1577</v>
       </c>
@@ -35472,7 +35744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1580" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1580">
         <v>1578</v>
       </c>
@@ -35503,7 +35775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1582">
         <v>1580</v>
       </c>
@@ -35537,7 +35809,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1584" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1584">
         <v>1582</v>
       </c>
@@ -35568,7 +35840,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="1586" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1586">
         <v>1584</v>
       </c>
@@ -35585,7 +35857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1587" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1587">
         <v>1585</v>
       </c>
@@ -35602,7 +35874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1588" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1588">
         <v>1586</v>
       </c>
@@ -35633,7 +35905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1590">
         <v>1588</v>
       </c>
@@ -35706,7 +35978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1595" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1595">
         <v>1593</v>
       </c>
@@ -35740,7 +36012,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="1597" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1597">
         <v>1595</v>
       </c>
@@ -35757,7 +36029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1598" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1598">
         <v>1596</v>
       </c>
@@ -35802,7 +36074,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="1601" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1601">
         <v>1599</v>
       </c>
@@ -35836,7 +36108,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="1603" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1603">
         <v>1601</v>
       </c>
@@ -35856,7 +36128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1604" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1604">
         <v>1602</v>
       </c>
@@ -35901,7 +36173,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="1607" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1607">
         <v>1605</v>
       </c>
@@ -35949,7 +36221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1610" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1610">
         <v>1608</v>
       </c>
@@ -35966,7 +36238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1611" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1611">
         <v>1609</v>
       </c>
@@ -35983,7 +36255,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1612" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1612">
         <v>1610</v>
       </c>
@@ -36000,7 +36272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1613" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1613">
         <v>1611</v>
       </c>
@@ -36045,7 +36317,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="1616" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1616">
         <v>1614</v>
       </c>
@@ -36079,7 +36351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1618" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1618">
         <v>1616</v>
       </c>
@@ -36096,7 +36368,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1619" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1619">
         <v>1617</v>
       </c>
@@ -36130,7 +36402,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="1621" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1621">
         <v>1619</v>
       </c>
@@ -36147,7 +36419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1622" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1622">
         <v>1620</v>
       </c>
@@ -36164,7 +36436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1623" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1623">
         <v>1621</v>
       </c>
@@ -36251,7 +36523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1629" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1629">
         <v>1627</v>
       </c>
@@ -36285,7 +36557,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="1631" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1631">
         <v>1629</v>
       </c>
@@ -36302,7 +36574,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1632" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1632">
         <v>1630</v>
       </c>
@@ -36322,7 +36594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1633" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1633">
         <v>1631</v>
       </c>
@@ -36339,7 +36611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1634" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1634">
         <v>1632</v>
       </c>
@@ -36426,7 +36698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1640">
         <v>1638</v>
       </c>
@@ -36443,7 +36715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1641" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1641">
         <v>1639</v>
       </c>
@@ -36463,7 +36735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1642" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1642">
         <v>1640</v>
       </c>
@@ -36497,7 +36769,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="1644" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1644">
         <v>1642</v>
       </c>
@@ -36514,7 +36786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1645" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1645">
         <v>1643</v>
       </c>
@@ -36545,7 +36817,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1647" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1647">
         <v>1645</v>
       </c>
@@ -36565,7 +36837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1648" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1648">
         <v>1646</v>
       </c>
@@ -36610,7 +36882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="1651" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1651">
         <v>1649</v>
       </c>
@@ -36627,7 +36899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1652" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1652">
         <v>1650</v>
       </c>
@@ -36672,7 +36944,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="1655" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1655">
         <v>1653</v>
       </c>
@@ -36689,7 +36961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1656" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1656">
         <v>1654</v>
       </c>
@@ -36709,7 +36981,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1657" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1657">
         <v>1655</v>
       </c>
@@ -36754,7 +37026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1660" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1660">
         <v>1658</v>
       </c>
@@ -36771,7 +37043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1661" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1661">
         <v>1659</v>
       </c>
@@ -36788,7 +37060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1662" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1662">
         <v>1660</v>
       </c>
@@ -36805,7 +37077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1663" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1663">
         <v>1661</v>
       </c>
@@ -36822,7 +37094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1664" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1664">
         <v>1662</v>
       </c>
@@ -36867,7 +37139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1667" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1667">
         <v>1665</v>
       </c>
@@ -36884,7 +37156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1668" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1668">
         <v>1666</v>
       </c>
@@ -36901,7 +37173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1669" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1669">
         <v>1667</v>
       </c>
@@ -36918,7 +37190,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1670" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1670">
         <v>1668</v>
       </c>
@@ -36935,7 +37207,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1671" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1671">
         <v>1669</v>
       </c>
@@ -36952,7 +37224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1672" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1672">
         <v>1670</v>
       </c>
@@ -37000,7 +37272,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="1675" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1675">
         <v>1673</v>
       </c>
@@ -37031,7 +37303,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1677" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1677">
         <v>1675</v>
       </c>
@@ -37048,7 +37320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1678" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1678">
         <v>1676</v>
       </c>
@@ -37079,7 +37351,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="1680" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1680">
         <v>1678</v>
       </c>
@@ -37096,7 +37368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1681" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1681">
         <v>1679</v>
       </c>
@@ -37113,7 +37385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1682" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1682">
         <v>1680</v>
       </c>
@@ -37175,7 +37447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1686" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1686">
         <v>1684</v>
       </c>
@@ -37220,7 +37492,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="1689" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1689">
         <v>1687</v>
       </c>
@@ -37321,7 +37593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1696" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1696">
         <v>1694</v>
       </c>
@@ -37352,7 +37624,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="1698" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1698">
         <v>1696</v>
       </c>
@@ -37383,7 +37655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1700" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1700">
         <v>1698</v>
       </c>
@@ -37400,7 +37672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1701" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1701">
         <v>1699</v>
       </c>
@@ -37462,7 +37734,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="1705" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1705">
         <v>1703</v>
       </c>
@@ -37510,7 +37782,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="1708" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1708">
         <v>1706</v>
       </c>
@@ -37527,7 +37799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1709" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1709">
         <v>1707</v>
       </c>
@@ -37600,7 +37872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1714" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1714">
         <v>1712</v>
       </c>
@@ -37645,7 +37917,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1717" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1717">
         <v>1715</v>
       </c>
@@ -37690,7 +37962,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="1720" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1720">
         <v>1718</v>
       </c>
@@ -37707,7 +37979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1721" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1721">
         <v>1719</v>
       </c>
@@ -37724,7 +37996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1722" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1722">
         <v>1720</v>
       </c>
@@ -37755,7 +38027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1724" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1724">
         <v>1722</v>
       </c>
@@ -37800,7 +38072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1727" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1727">
         <v>1725</v>
       </c>
@@ -37831,7 +38103,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="1729" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1729">
         <v>1727</v>
       </c>
@@ -37862,7 +38134,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1731" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1731">
         <v>1729</v>
       </c>
@@ -37893,7 +38165,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1733" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1733">
         <v>1731</v>
       </c>
@@ -37924,7 +38196,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="1735" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1735">
         <v>1733</v>
       </c>
@@ -37958,7 +38230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1737" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1737">
         <v>1735</v>
       </c>
@@ -37975,7 +38247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1738" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1738">
         <v>1736</v>
       </c>
@@ -37992,7 +38264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1739" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1739">
         <v>1737</v>
       </c>
@@ -38037,7 +38309,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="1742" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1742">
         <v>1740</v>
       </c>
@@ -38099,7 +38371,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="1746" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1746">
         <v>1744</v>
       </c>
@@ -38116,7 +38388,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1747" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1747">
         <v>1745</v>
       </c>
@@ -38133,7 +38405,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1748" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1748">
         <v>1746</v>
       </c>
@@ -38150,7 +38422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1749" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1749">
         <v>1747</v>
       </c>
@@ -38181,7 +38453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1751" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1751">
         <v>1749</v>
       </c>
@@ -38198,7 +38470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1752" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1752">
         <v>1750</v>
       </c>
@@ -38243,7 +38515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="1755" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1755">
         <v>1753</v>
       </c>
@@ -38330,7 +38602,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="1761" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1761">
         <v>1759</v>
       </c>
@@ -38375,7 +38647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="1764" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1764">
         <v>1762</v>
       </c>
@@ -38392,7 +38664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1765" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1765">
         <v>1763</v>
       </c>
@@ -38409,7 +38681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1766" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1766">
         <v>1764</v>
       </c>
@@ -38429,7 +38701,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1767" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1767">
         <v>1765</v>
       </c>
@@ -38446,7 +38718,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1768" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1768">
         <v>1766</v>
       </c>
@@ -38463,7 +38735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1769" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1769">
         <v>1767</v>
       </c>
@@ -38522,7 +38794,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="1773" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1773">
         <v>1771</v>
       </c>
@@ -38567,7 +38839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1776" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1776">
         <v>1774</v>
       </c>
@@ -38640,7 +38912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1781" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1781">
         <v>1779</v>
       </c>
@@ -38660,7 +38932,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1782" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1782">
         <v>1780</v>
       </c>
@@ -38680,7 +38952,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1783" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1783">
         <v>1781</v>
       </c>
@@ -38697,7 +38969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1784" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1784">
         <v>1782</v>
       </c>
@@ -38714,7 +38986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1785" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1785">
         <v>1783</v>
       </c>
@@ -38773,7 +39045,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="1789" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1789">
         <v>1787</v>
       </c>
@@ -38860,7 +39132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1795" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1795">
         <v>1793</v>
       </c>
@@ -38989,7 +39261,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="1804" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1804">
         <v>1802</v>
       </c>
@@ -39023,7 +39295,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1806" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1806">
         <v>1804</v>
       </c>
@@ -39096,7 +39368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1811" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1811">
         <v>1809</v>
       </c>
@@ -39144,7 +39416,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="1814" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1814">
         <v>1812</v>
       </c>
@@ -39175,7 +39447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="1816" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1816">
         <v>1814</v>
       </c>
@@ -39304,7 +39576,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="1825" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1825">
         <v>1823</v>
       </c>
@@ -39321,7 +39593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1826" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1826">
         <v>1824</v>
       </c>
@@ -39352,7 +39624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1828" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1828">
         <v>1826</v>
       </c>
@@ -39383,7 +39655,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="1830" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1830">
         <v>1828</v>
       </c>
@@ -39456,7 +39728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1835" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1835">
         <v>1833</v>
       </c>
@@ -39473,7 +39745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1836" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1836">
         <v>1834</v>
       </c>
@@ -39490,7 +39762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1837" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1837">
         <v>1835</v>
       </c>
@@ -39507,7 +39779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1838" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1838">
         <v>1836</v>
       </c>
@@ -39552,7 +39824,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="1841" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1841">
         <v>1839</v>
       </c>
@@ -39695,7 +39967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1851" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1851">
         <v>1849</v>
       </c>
@@ -39712,7 +39984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1852" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1852">
         <v>1850</v>
       </c>
@@ -39729,7 +40001,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1853" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1853">
         <v>1851</v>
       </c>
@@ -39760,7 +40032,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="1855" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1855">
         <v>1853</v>
       </c>
@@ -39847,7 +40119,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="1861" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1861">
         <v>1859</v>
       </c>
@@ -39864,7 +40136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1862" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1862">
         <v>1860</v>
       </c>
@@ -39895,7 +40167,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="1864" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1864">
         <v>1862</v>
       </c>
@@ -39915,7 +40187,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1865" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1865">
         <v>1863</v>
       </c>
@@ -39946,7 +40218,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="1867" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1867">
         <v>1865</v>
       </c>
@@ -39963,7 +40235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1868" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1868">
         <v>1866</v>
       </c>
@@ -40078,7 +40350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1876" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1876">
         <v>1874</v>
       </c>
@@ -40112,7 +40384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1878" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1878">
         <v>1876</v>
       </c>
@@ -40143,7 +40415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1880" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1880">
         <v>1878</v>
       </c>
@@ -40202,7 +40474,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="1884" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1884">
         <v>1882</v>
       </c>
@@ -40219,7 +40491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1885" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1885">
         <v>1883</v>
       </c>
@@ -40267,7 +40539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1888" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1888">
         <v>1886</v>
       </c>
@@ -40368,7 +40640,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="1895" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1895">
         <v>1893</v>
       </c>
@@ -40385,7 +40657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1896" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1896">
         <v>1894</v>
       </c>
@@ -40402,7 +40674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1897" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1897">
         <v>1895</v>
       </c>
@@ -40433,7 +40705,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="1899" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1899" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1899">
         <v>1897</v>
       </c>
@@ -40492,7 +40764,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="1903" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1903" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1903">
         <v>1901</v>
       </c>
@@ -40509,7 +40781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1904" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1904" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1904">
         <v>1902</v>
       </c>
@@ -40568,7 +40840,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="1908" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1908" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1908">
         <v>1906</v>
       </c>
@@ -40613,7 +40885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1911" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1911" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1911">
         <v>1909</v>
       </c>
@@ -40644,7 +40916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1913" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1913" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1913">
         <v>1911</v>
       </c>
@@ -40703,7 +40975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1917" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1917" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1917">
         <v>1915</v>
       </c>
@@ -40734,7 +41006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1919" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1919">
         <v>1917</v>
       </c>
@@ -40765,7 +41037,7 @@
         <v>2409</v>
       </c>
     </row>
-    <row r="1921" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1921" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1921">
         <v>1919</v>
       </c>
@@ -40880,7 +41152,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="1929" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1929" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1929">
         <v>1927</v>
       </c>
@@ -40897,7 +41169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1930" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1930" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1930">
         <v>1928</v>
       </c>
@@ -40942,7 +41214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1933" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1933" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1933">
         <v>1931</v>
       </c>
@@ -40987,7 +41259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="1936" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1936" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1936">
         <v>1934</v>
       </c>
@@ -41032,7 +41304,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="1939" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1939" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1939">
         <v>1937</v>
       </c>
@@ -41119,7 +41391,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="1945" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1945" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1945">
         <v>1943</v>
       </c>
@@ -41206,7 +41478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1951" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1951" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1951">
         <v>1949</v>
       </c>
@@ -41251,7 +41523,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="1954" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1954" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1954">
         <v>1952</v>
       </c>
@@ -41268,7 +41540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1955" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1955" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1955">
         <v>1953</v>
       </c>
@@ -41341,7 +41613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="1960" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1960" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1960">
         <v>1958</v>
       </c>
@@ -41358,7 +41630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1961" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1961" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1961">
         <v>1959</v>
       </c>
@@ -41375,7 +41647,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="1962" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1962" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1962">
         <v>1960</v>
       </c>
@@ -41392,7 +41664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1963" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1963" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1963">
         <v>1961</v>
       </c>
@@ -41409,7 +41681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1964" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1964" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1964">
         <v>1962</v>
       </c>
@@ -41454,7 +41726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1967" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1967" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1967">
         <v>1965</v>
       </c>
@@ -41499,7 +41771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="1970" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1970" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1970">
         <v>1968</v>
       </c>
@@ -41558,7 +41830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1974" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1974" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1974">
         <v>1972</v>
       </c>
@@ -41617,7 +41889,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="1978" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1978" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1978">
         <v>1976</v>
       </c>
@@ -41634,7 +41906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1979" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1979" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1979">
         <v>1977</v>
       </c>
@@ -41651,7 +41923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1980" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1980" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1980">
         <v>1978</v>
       </c>
@@ -41668,7 +41940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1981" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1981" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1981">
         <v>1979</v>
       </c>
@@ -41730,7 +42002,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="1985" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1985" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1985">
         <v>1983</v>
       </c>
@@ -41747,7 +42019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1986" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1986" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1986">
         <v>1984</v>
       </c>
@@ -41764,7 +42036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1987" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1987" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1987">
         <v>1985</v>
       </c>
@@ -41879,7 +42151,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="1995" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1995" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1995">
         <v>1993</v>
       </c>
@@ -41938,7 +42210,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1999" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1999" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1999">
         <v>1997</v>
       </c>
